--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3387450.457991649</v>
+        <v>3383192.195765171</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8169816.958207516</v>
+        <v>8169816.958207515</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>158.539749204638</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>12.92889148616887</v>
+        <v>14.76419198078228</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.958190538687</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7530123241024569</v>
+        <v>0.7530123241020306</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011784</v>
+        <v>154.9260532011782</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.7043385723318</v>
       </c>
       <c r="U2" t="n">
         <v>251.1557452255192</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -755,10 +755,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H3" t="n">
-        <v>99.96876284261762</v>
+        <v>99.96876284261759</v>
       </c>
       <c r="I3" t="n">
-        <v>45.66663787323668</v>
+        <v>45.66663787323655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.29900499199427</v>
+        <v>21.29900499199404</v>
       </c>
       <c r="S3" t="n">
-        <v>148.0912566156104</v>
+        <v>148.0912566156103</v>
       </c>
       <c r="T3" t="n">
         <v>195.0452553973763</v>
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9261537524327</v>
       </c>
       <c r="H4" t="n">
-        <v>152.75990484659</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063312</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371268</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>31.10926149785091</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>30.6078221383912</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>320.1165074750866</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.92889148616886</v>
+        <v>412.9288914861689</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.9581905386869</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241022864</v>
+        <v>0.7530123241020306</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011783</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.7043385723319</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>216.1111265027008</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H6" t="n">
-        <v>99.96876284261762</v>
+        <v>99.96876284261759</v>
       </c>
       <c r="I6" t="n">
-        <v>45.66663787323662</v>
+        <v>45.66663787323655</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.29900499199418</v>
+        <v>21.29900499199404</v>
       </c>
       <c r="S6" t="n">
         <v>148.0912566156103</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>130.1244496789936</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371267</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2609479597986</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>266.6599013798519</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>107.5271626469796</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>136.2136213140344</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>53.1411766001228</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>158.106681013555</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>150.3341561773491</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>159.7642955692147</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1897,19 +1897,19 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>138.534312581592</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>135.3135037226517</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>126.926382450742</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>18.66234525555492</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>48.47457675531665</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>206.5358970628699</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.09841665934323</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>28.54004930889326</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>99.70681342860046</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>96.04906679049647</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>75.2135622723823</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>279.2620532767269</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>244.8868067888996</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>721.9865408694468</v>
+        <v>1233.368087155861</v>
       </c>
       <c r="C2" t="n">
-        <v>353.0240239290351</v>
+        <v>864.4055702154494</v>
       </c>
       <c r="D2" t="n">
-        <v>192.8828631162694</v>
+        <v>864.4055702154494</v>
       </c>
       <c r="E2" t="n">
-        <v>192.8828631162694</v>
+        <v>478.6173176172052</v>
       </c>
       <c r="F2" t="n">
-        <v>185.9373623670659</v>
+        <v>67.63141282759761</v>
       </c>
       <c r="G2" t="n">
-        <v>172.8778760174004</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H2" t="n">
-        <v>172.8778760174004</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I2" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J2" t="n">
-        <v>72.94508437002398</v>
+        <v>72.94508437002453</v>
       </c>
       <c r="K2" t="n">
-        <v>474.9025859199828</v>
+        <v>153.9986274745311</v>
       </c>
       <c r="L2" t="n">
-        <v>751.5998715500365</v>
+        <v>693.1884131896807</v>
       </c>
       <c r="M2" t="n">
-        <v>1381.233824431312</v>
+        <v>1322.822366070958</v>
       </c>
       <c r="N2" t="n">
-        <v>2006.423915386426</v>
+        <v>1948.012457026072</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.593372690802</v>
+        <v>2493.174093780568</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.201833992999</v>
+        <v>2602.201833992997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R2" t="n">
         <v>2635.143761215016</v>
@@ -4360,22 +4360,22 @@
         <v>2478.652798385543</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.652798385543</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.960126440574</v>
+        <v>2010.107259195795</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.960126440574</v>
+        <v>2010.107259195795</v>
       </c>
       <c r="W2" t="n">
-        <v>1872.19147117046</v>
+        <v>2010.107259195795</v>
       </c>
       <c r="X2" t="n">
-        <v>1498.72571290938</v>
+        <v>2010.107259195795</v>
       </c>
       <c r="Y2" t="n">
-        <v>1108.586380933569</v>
+        <v>1619.967927219983</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.4318812120978</v>
+        <v>966.4318812120973</v>
       </c>
       <c r="C3" t="n">
-        <v>791.9788519309708</v>
+        <v>791.9788519309703</v>
       </c>
       <c r="D3" t="n">
-        <v>643.0444422697196</v>
+        <v>643.0444422697192</v>
       </c>
       <c r="E3" t="n">
-        <v>483.8069872642641</v>
+        <v>483.8069872642636</v>
       </c>
       <c r="F3" t="n">
-        <v>337.2724292911492</v>
+        <v>337.2724292911487</v>
       </c>
       <c r="G3" t="n">
-        <v>199.8245529640339</v>
+        <v>199.8245529640335</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815764</v>
+        <v>98.84600463815741</v>
       </c>
       <c r="I3" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J3" t="n">
-        <v>170.7774263352076</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K3" t="n">
-        <v>237.3598989302709</v>
+        <v>119.3005601895481</v>
       </c>
       <c r="L3" t="n">
-        <v>740.3427331273811</v>
+        <v>622.2833943866591</v>
       </c>
       <c r="M3" t="n">
-        <v>918.2311849955985</v>
+        <v>1261.219859367377</v>
       </c>
       <c r="N3" t="n">
-        <v>1570.617518977341</v>
+        <v>1913.606193349119</v>
       </c>
       <c r="O3" t="n">
-        <v>2118.542758183014</v>
+        <v>2461.531432554793</v>
       </c>
       <c r="P3" t="n">
-        <v>2406.001465018976</v>
+        <v>2613.977979877466</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R3" t="n">
         <v>2614.390233267651</v>
@@ -4439,7 +4439,7 @@
         <v>2464.803105373095</v>
       </c>
       <c r="T3" t="n">
-        <v>2267.787695880796</v>
+        <v>2267.787695880795</v>
       </c>
       <c r="U3" t="n">
         <v>2039.648482162597</v>
@@ -4448,13 +4448,13 @@
         <v>1804.496373930854</v>
       </c>
       <c r="W3" t="n">
-        <v>1550.259017202653</v>
+        <v>1550.259017202652</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.40751699712</v>
+        <v>1342.407516997119</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.647218232166</v>
+        <v>1134.647218232165</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>375.396256923207</v>
+        <v>835.1862275326391</v>
       </c>
       <c r="C4" t="n">
-        <v>375.396256923207</v>
+        <v>666.2500446047322</v>
       </c>
       <c r="D4" t="n">
-        <v>225.2796175108713</v>
+        <v>516.1334051923965</v>
       </c>
       <c r="E4" t="n">
-        <v>225.2796175108713</v>
+        <v>368.2203116100034</v>
       </c>
       <c r="F4" t="n">
-        <v>225.2796175108713</v>
+        <v>221.330364112093</v>
       </c>
       <c r="G4" t="n">
-        <v>225.2796175108713</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H4" t="n">
-        <v>70.97668332239647</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I4" t="n">
-        <v>70.97668332239647</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J4" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K4" t="n">
-        <v>153.1475318919731</v>
+        <v>153.1475318919734</v>
       </c>
       <c r="L4" t="n">
-        <v>337.1890785482319</v>
+        <v>337.1890785482327</v>
       </c>
       <c r="M4" t="n">
-        <v>541.6242080628142</v>
+        <v>541.6242080628155</v>
       </c>
       <c r="N4" t="n">
-        <v>746.6329435543747</v>
+        <v>746.6329435543764</v>
       </c>
       <c r="O4" t="n">
-        <v>919.9753968917072</v>
+        <v>919.9753968917094</v>
       </c>
       <c r="P4" t="n">
-        <v>1044.779129327083</v>
+        <v>1044.779129327086</v>
       </c>
       <c r="Q4" t="n">
-        <v>1047.751684421857</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="R4" t="n">
-        <v>917.0295025661735</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="S4" t="n">
-        <v>917.0295025661735</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="T4" t="n">
-        <v>917.0295025661735</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="U4" t="n">
-        <v>885.6060061036978</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="V4" t="n">
-        <v>885.6060061036978</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="W4" t="n">
-        <v>596.1888360667372</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="X4" t="n">
-        <v>596.1888360667372</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="Y4" t="n">
-        <v>375.396256923207</v>
+        <v>1016.834692362879</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1340.977218361668</v>
+        <v>1527.341701831512</v>
       </c>
       <c r="C5" t="n">
-        <v>1340.977218361668</v>
+        <v>1158.3791848911</v>
       </c>
       <c r="D5" t="n">
-        <v>982.7115197549176</v>
+        <v>800.1134862843498</v>
       </c>
       <c r="E5" t="n">
-        <v>596.9232671566733</v>
+        <v>476.7634787337573</v>
       </c>
       <c r="F5" t="n">
-        <v>185.9373623670658</v>
+        <v>469.8179779845538</v>
       </c>
       <c r="G5" t="n">
-        <v>172.8778760174003</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H5" t="n">
-        <v>172.8778760174003</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I5" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J5" t="n">
-        <v>72.9450843700242</v>
+        <v>72.94508437002453</v>
       </c>
       <c r="K5" t="n">
-        <v>153.9986274745302</v>
+        <v>153.9986274745311</v>
       </c>
       <c r="L5" t="n">
-        <v>704.9390792031099</v>
+        <v>704.9390792031114</v>
       </c>
       <c r="M5" t="n">
-        <v>1334.573032084386</v>
+        <v>1334.573032084389</v>
       </c>
       <c r="N5" t="n">
-        <v>1959.7631230395</v>
+        <v>1959.763123039503</v>
       </c>
       <c r="O5" t="n">
-        <v>2493.17409378057</v>
+        <v>2493.174093780568</v>
       </c>
       <c r="P5" t="n">
-        <v>2602.201833992998</v>
+        <v>2602.201833992997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R5" t="n">
-        <v>2635.143761215017</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="S5" t="n">
-        <v>2478.652798385544</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="T5" t="n">
-        <v>2263.799931140764</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="U5" t="n">
-        <v>2263.799931140764</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="V5" t="n">
-        <v>1932.737043797193</v>
+        <v>2304.080873871445</v>
       </c>
       <c r="W5" t="n">
-        <v>1714.442976622748</v>
+        <v>2304.080873871445</v>
       </c>
       <c r="X5" t="n">
-        <v>1340.977218361668</v>
+        <v>2304.080873871445</v>
       </c>
       <c r="Y5" t="n">
-        <v>1340.977218361668</v>
+        <v>1913.941541895634</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120973</v>
+        <v>966.4318812120981</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309703</v>
+        <v>791.9788519309711</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697192</v>
+        <v>643.0444422697199</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642636</v>
+        <v>483.8069872642644</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911487</v>
+        <v>337.2724292911494</v>
       </c>
       <c r="G6" t="n">
-        <v>199.8245529640335</v>
+        <v>199.8245529640338</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815741</v>
+        <v>98.8460046381575</v>
       </c>
       <c r="I6" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J6" t="n">
-        <v>52.71808759448422</v>
+        <v>170.7774263352079</v>
       </c>
       <c r="K6" t="n">
-        <v>119.3005601895478</v>
+        <v>499.1804835727247</v>
       </c>
       <c r="L6" t="n">
-        <v>599.379243323743</v>
+        <v>1002.163317769836</v>
       </c>
       <c r="M6" t="n">
-        <v>1238.315708304461</v>
+        <v>1238.315708304459</v>
       </c>
       <c r="N6" t="n">
-        <v>1435.320983085769</v>
+        <v>1435.320983085768</v>
       </c>
       <c r="O6" t="n">
         <v>1983.246222291442</v>
@@ -4667,7 +4667,7 @@
         <v>2406.001465018976</v>
       </c>
       <c r="Q6" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R6" t="n">
         <v>2614.390233267651</v>
@@ -4676,7 +4676,7 @@
         <v>2464.803105373095</v>
       </c>
       <c r="T6" t="n">
-        <v>2267.787695880795</v>
+        <v>2267.787695880796</v>
       </c>
       <c r="U6" t="n">
         <v>2039.648482162597</v>
@@ -4685,13 +4685,13 @@
         <v>1804.496373930854</v>
       </c>
       <c r="W6" t="n">
-        <v>1550.259017202652</v>
+        <v>1550.259017202653</v>
       </c>
       <c r="X6" t="n">
-        <v>1342.407516997119</v>
+        <v>1342.40751699712</v>
       </c>
       <c r="Y6" t="n">
-        <v>1134.647218232165</v>
+        <v>1134.647218232166</v>
       </c>
     </row>
     <row r="7">
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>338.4598598425485</v>
+        <v>375.9572047108659</v>
       </c>
       <c r="C7" t="n">
-        <v>338.4598598425485</v>
+        <v>207.021021782959</v>
       </c>
       <c r="D7" t="n">
-        <v>338.4598598425485</v>
+        <v>207.021021782959</v>
       </c>
       <c r="E7" t="n">
         <v>207.021021782959</v>
@@ -4719,58 +4719,58 @@
         <v>207.021021782959</v>
       </c>
       <c r="H7" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I7" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J7" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K7" t="n">
-        <v>153.1475318919732</v>
+        <v>153.1475318919734</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1890785482323</v>
+        <v>337.1890785482327</v>
       </c>
       <c r="M7" t="n">
-        <v>541.6242080628147</v>
+        <v>541.6242080628155</v>
       </c>
       <c r="N7" t="n">
-        <v>746.6329435543753</v>
+        <v>746.6329435543764</v>
       </c>
       <c r="O7" t="n">
-        <v>919.975396891708</v>
+        <v>919.9753968917094</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.779129327084</v>
+        <v>1044.779129327086</v>
       </c>
       <c r="Q7" t="n">
-        <v>1047.751684421858</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="R7" t="n">
-        <v>917.0295025661744</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="S7" t="n">
-        <v>917.0295025661744</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="T7" t="n">
-        <v>917.0295025661744</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="U7" t="n">
-        <v>627.8770298795091</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="V7" t="n">
-        <v>627.8770298795091</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="W7" t="n">
-        <v>338.4598598425485</v>
+        <v>778.3982486846357</v>
       </c>
       <c r="X7" t="n">
-        <v>338.4598598425485</v>
+        <v>778.3982486846357</v>
       </c>
       <c r="Y7" t="n">
-        <v>338.4598598425485</v>
+        <v>557.6056695411056</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1557.280587981905</v>
+        <v>1698.381133855676</v>
       </c>
       <c r="C8" t="n">
-        <v>1557.280587981905</v>
+        <v>1329.418616915265</v>
       </c>
       <c r="D8" t="n">
-        <v>1199.014889375155</v>
+        <v>971.1529183085142</v>
       </c>
       <c r="E8" t="n">
-        <v>1199.014889375155</v>
+        <v>585.3646657102699</v>
       </c>
       <c r="F8" t="n">
-        <v>788.0289845855473</v>
+        <v>174.3787609206624</v>
       </c>
       <c r="G8" t="n">
-        <v>370.9412028219747</v>
+        <v>161.3313831974939</v>
       </c>
       <c r="H8" t="n">
-        <v>52.71808759448422</v>
+        <v>161.3313831974939</v>
       </c>
       <c r="I8" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J8" t="n">
-        <v>241.3579866082206</v>
+        <v>73.9523375878675</v>
       </c>
       <c r="K8" t="n">
-        <v>323.9211411828129</v>
+        <v>156.5154921624599</v>
       </c>
       <c r="L8" t="n">
-        <v>463.2497970240661</v>
+        <v>683.9992506428529</v>
       </c>
       <c r="M8" t="n">
-        <v>997.1363405363971</v>
+        <v>1315.717061626165</v>
       </c>
       <c r="N8" t="n">
-        <v>1624.444008596244</v>
+        <v>1943.024729686011</v>
       </c>
       <c r="O8" t="n">
-        <v>2171.605213363321</v>
+        <v>2490.185934453089</v>
       </c>
       <c r="P8" t="n">
-        <v>2600.920259702616</v>
+        <v>2600.920259702615</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R8" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="T8" t="n">
-        <v>2421.104517991922</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="U8" t="n">
-        <v>2421.104517991922</v>
+        <v>2382.212676469361</v>
       </c>
       <c r="V8" t="n">
-        <v>2283.515001513099</v>
+        <v>2051.14978912579</v>
       </c>
       <c r="W8" t="n">
-        <v>1930.746346242985</v>
+        <v>1698.381133855676</v>
       </c>
       <c r="X8" t="n">
-        <v>1557.280587981905</v>
+        <v>1698.381133855676</v>
       </c>
       <c r="Y8" t="n">
-        <v>1557.280587981905</v>
+        <v>1698.381133855676</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>199.5389224593631</v>
       </c>
       <c r="H9" t="n">
-        <v>98.62294460416773</v>
+        <v>98.62294460416771</v>
       </c>
       <c r="I9" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J9" t="n">
         <v>171.3773394513799</v>
       </c>
       <c r="K9" t="n">
-        <v>238.9851591147369</v>
+        <v>500.8057437571897</v>
       </c>
       <c r="L9" t="n">
-        <v>661.2688841046679</v>
+        <v>1005.167283623308</v>
       </c>
       <c r="M9" t="n">
-        <v>1301.814233571773</v>
+        <v>1645.712633090413</v>
       </c>
       <c r="N9" t="n">
-        <v>1954.200567553515</v>
+        <v>1844.369374743078</v>
       </c>
       <c r="O9" t="n">
-        <v>2503.636576306238</v>
+        <v>2003.881687411838</v>
       </c>
       <c r="P9" t="n">
-        <v>2612.326203833537</v>
+        <v>2404.349688975046</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.063145035514</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>202.8347270068199</v>
+        <v>368.5442180203015</v>
       </c>
       <c r="C10" t="n">
-        <v>202.8347270068199</v>
+        <v>199.6080350923946</v>
       </c>
       <c r="D10" t="n">
-        <v>52.71808759448422</v>
+        <v>199.6080350923946</v>
       </c>
       <c r="E10" t="n">
-        <v>52.71808759448422</v>
+        <v>199.6080350923946</v>
       </c>
       <c r="F10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="G10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K10" t="n">
         <v>153.766017190094</v>
@@ -4989,25 +4989,25 @@
         <v>1052.652769053829</v>
       </c>
       <c r="S10" t="n">
-        <v>845.2124843062343</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="T10" t="n">
-        <v>845.2124843062343</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="U10" t="n">
-        <v>845.2124843062343</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="V10" t="n">
-        <v>590.5279961003474</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="W10" t="n">
-        <v>590.5279961003474</v>
+        <v>998.9748128920887</v>
       </c>
       <c r="X10" t="n">
-        <v>362.5384452023301</v>
+        <v>770.9852619940714</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.8347270068199</v>
+        <v>550.1926828505412</v>
       </c>
     </row>
     <row r="11">
@@ -5023,7 +5023,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5032,13 +5032,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5126,13 +5126,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>2197.062545487567</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1942.37805728168</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1652.96088724472</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5269,28 +5269,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5311,16 +5311,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>409.1360811687896</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356195</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5463,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.747069396417</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.757518498399</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>1111.379442165859</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,10 +5551,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2233.355914590558</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2233.355914590558</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>2728.681520806317</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M18" t="n">
-        <v>3087.702309109632</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N18" t="n">
-        <v>3715.300272664238</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O18" t="n">
-        <v>4267.210002903525</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>783.5579673960132</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C19" t="n">
-        <v>614.6217844681063</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D19" t="n">
-        <v>464.5051450557705</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5715,10 +5715,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1004.350546539543</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>783.5579673960132</v>
+        <v>779.6143379232838</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797162</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>2876.560776129205</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>3473.939263755757</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>4101.537227310363</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>4653.44695754965</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>363.7369613277355</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>363.7369613277355</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>363.7369613277355</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>184.7035232280589</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>184.7035232280589</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>801.6918836311989</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,40 +6238,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>768.5380889459582</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>599.6019060180513</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6420,16 +6420,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.1865537761979</v>
+        <v>707.672526468518</v>
       </c>
     </row>
     <row r="29">
@@ -6457,19 +6457,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6481,10 +6481,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2231.58852738579</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2231.58852738579</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>2726.914133601549</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>3051.062654156518</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>3678.660617711125</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>4230.570347950412</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3200.825397924056</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>3031.889214996149</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>2881.772575583813</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2733.85948200142</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2586.96953450351</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>2419.77343521839</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4221.33114932884</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3966.646661122953</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3677.229491085993</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3449.239940187976</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3382.473862754296</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6779,22 +6779,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3229.653730559302</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>3060.717547631396</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>2910.60090821906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>2762.687814636667</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>2615.797867138756</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2448.601767853636</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>4623.787448650995</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>4404.185983673937</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>4404.185983673937</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>4149.50149546805</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>3860.084325431089</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>3632.094774533072</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>3411.302195389542</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6931,13 +6931,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075802</v>
@@ -6952,37 +6952,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2884.999267498239</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2884.999267498239</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>2734.882628085903</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>2586.96953450351</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F37" t="n">
-        <v>2586.96953450351</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>2419.77343521839</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673038</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467151</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430191</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3287.440311472008</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3066.647732328478</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7153,16 +7153,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7207,16 +7207,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3272.360389181079</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C40" t="n">
-        <v>3103.424206253172</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D40" t="n">
-        <v>2953.307566840836</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>2805.394473258443</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>2658.504525760532</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4507.978318053498</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>4218.903091397696</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V40" t="n">
-        <v>3964.218603191809</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W40" t="n">
-        <v>3674.801433154848</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X40" t="n">
-        <v>3674.801433154848</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y40" t="n">
-        <v>3454.008854011318</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="41">
@@ -7408,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7432,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7490,19 +7490,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2946.364478946742</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>2777.428296018835</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>2627.3116566065</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>3939.248267231137</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3684.56377902525</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3395.14660898829</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3167.157058090272</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>2946.364478946742</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,22 +7645,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7730,25 +7730,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1368.154262550759</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1920.063992790046</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2343.687142285114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3027.428036214345</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>2858.491853286439</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>2708.375213874103</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>2708.375213874103</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>2561.485266376193</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>3973.970738430963</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3719.286250225076</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3429.869080188115</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3429.869080188115</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>3209.076501044585</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7981,10 +7981,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>140.6479154610307</v>
+        <v>405.7918549409245</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -7993,10 +7993,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>6.839178026546477</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>459.9808678792267</v>
+        <v>459.9808678792256</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>181.7996010726939</v>
+        <v>45.42368237240066</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8230,7 +8230,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>368.9308216532247</v>
+        <v>368.930821653219</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.839178026546691</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>347.7048391793023</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>58.85246329939895</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8452,16 +8452,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>392.0758612516564</v>
       </c>
       <c r="M8" t="n">
-        <v>350.6940714009328</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
@@ -8470,7 +8470,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>287.9334615901384</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>458.3127195243206</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>294.7256303393017</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>75.37549921168804</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>58.82035778288011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,19 +23892,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>87.17534280744519</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>83.27114962944304</v>
       </c>
     </row>
     <row r="20">
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>38.5977558415268</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>148.5844758430729</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>100.1408962628957</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>12.04875628922491</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>152.4862366927516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>111.7546635373306</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>35.40333084624569</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>126.0028419604367</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>69.47507150177238</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,7 +25803,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>6.922421112517213</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>41.29766760034454</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>751679.2865730015</v>
+        <v>751679.2865730013</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>751679.2865730014</v>
+        <v>751679.2865730013</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>751331.1081090373</v>
+        <v>751331.1081090372</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>691564.1054216163</v>
+        <v>691564.1054216162</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>691564.1054216163</v>
+        <v>691564.1054216162</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>691564.1054216163</v>
+        <v>691564.1054216162</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>691564.1054216163</v>
+        <v>691564.1054216162</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778555</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="C2" t="n">
+        <v>738937.5928778548</v>
+      </c>
+      <c r="D2" t="n">
         <v>738937.5928778552</v>
       </c>
-      <c r="D2" t="n">
-        <v>738937.5928778551</v>
-      </c>
       <c r="E2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="G2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="J2" t="n">
         <v>726431.9397210055</v>
       </c>
-      <c r="F2" t="n">
-        <v>726431.9397210057</v>
-      </c>
-      <c r="G2" t="n">
-        <v>726431.9397210056</v>
-      </c>
-      <c r="H2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210056</v>
-      </c>
       <c r="K2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="L2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="M2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="N2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="N2" t="n">
-        <v>726431.9397210056</v>
-      </c>
       <c r="O2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210052</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>789845.9331222398</v>
+        <v>789845.9331222414</v>
       </c>
       <c r="C3" t="n">
-        <v>6.21140770817874e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2553.741448475036</v>
+        <v>2553.741448474159</v>
       </c>
       <c r="E3" t="n">
-        <v>775624.2722329922</v>
+        <v>775624.2722329923</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128024.1174663867</v>
+        <v>128024.1174663868</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184436.3405408961</v>
+        <v>184436.3405408958</v>
       </c>
       <c r="C4" t="n">
-        <v>184436.340540896</v>
+        <v>184436.3405408958</v>
       </c>
       <c r="D4" t="n">
         <v>183932.5854660025</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695091</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695092</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695058</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="J4" t="n">
         <v>6287.480531695052</v>
       </c>
-      <c r="J4" t="n">
-        <v>6287.480531695051</v>
-      </c>
       <c r="K4" t="n">
-        <v>6287.480531695093</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695114</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695052</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86566.12012538439</v>
+        <v>86566.12012538442</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.12012538439</v>
+        <v>86566.12012538442</v>
       </c>
       <c r="D5" t="n">
-        <v>86631.12555917782</v>
+        <v>86631.1255591778</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-321910.8009106647</v>
+        <v>-321910.800910667</v>
       </c>
       <c r="C6" t="n">
-        <v>467935.1322115742</v>
+        <v>467935.1322115746</v>
       </c>
       <c r="D6" t="n">
-        <v>465820.1404041996</v>
+        <v>465820.1404042008</v>
       </c>
       <c r="E6" t="n">
-        <v>-156602.3428675889</v>
+        <v>-156949.7221219462</v>
       </c>
       <c r="F6" t="n">
-        <v>619021.9293654036</v>
+        <v>618674.5501110461</v>
       </c>
       <c r="G6" t="n">
-        <v>619021.9293654035</v>
+        <v>618674.5501110462</v>
       </c>
       <c r="H6" t="n">
-        <v>619021.9293654034</v>
+        <v>618674.5501110461</v>
       </c>
       <c r="I6" t="n">
-        <v>619021.9293654034</v>
+        <v>618674.5501110462</v>
       </c>
       <c r="J6" t="n">
-        <v>446604.7879832633</v>
+        <v>446257.408728906</v>
       </c>
       <c r="K6" t="n">
-        <v>619021.9293654034</v>
+        <v>618674.5501110461</v>
       </c>
       <c r="L6" t="n">
-        <v>619021.9293654034</v>
+        <v>618674.5501110462</v>
       </c>
       <c r="M6" t="n">
-        <v>490997.8118990165</v>
+        <v>490650.4326446595</v>
       </c>
       <c r="N6" t="n">
-        <v>619021.9293654035</v>
+        <v>618674.5501110462</v>
       </c>
       <c r="O6" t="n">
-        <v>619021.9293654034</v>
+        <v>618674.5501110462</v>
       </c>
       <c r="P6" t="n">
-        <v>619021.9293654034</v>
+        <v>618674.5501110461</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053388</v>
+        <v>590.4941997053405</v>
       </c>
       <c r="C3" t="n">
-        <v>590.4941997053395</v>
+        <v>590.4941997053405</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="D4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,7 +26807,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053388</v>
+        <v>590.4941997053405</v>
       </c>
       <c r="C3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.981900632725569</v>
+        <v>2.981900632724546</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.7321931685957</v>
+        <v>513.7321931685958</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310524</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685955</v>
+        <v>513.7321931685958</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685957</v>
+        <v>513.7321931685958</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>196.1432924160449</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>398.1646995053866</v>
       </c>
       <c r="H2" t="n">
-        <v>315.1636514716172</v>
+        <v>315.1636514716171</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.9581905386867</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7043385723319</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9261537524327</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.75990484659</v>
       </c>
       <c r="I4" t="n">
-        <v>123.4282648842212</v>
+        <v>123.4282648842211</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>18.07600977063289</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.4149600371267</v>
       </c>
       <c r="S4" t="n">
         <v>205.4595917937733</v>
@@ -27593,19 +27593,19 @@
         <v>223.3958800207158</v>
       </c>
       <c r="U4" t="n">
-        <v>255.1516864619476</v>
+        <v>286.2609479597986</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>187.9768312137036</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>61.81386259717516</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>315.1636514716172</v>
+        <v>315.1636514716171</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.9581905386867</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.9260532011782</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.7043385723318</v>
       </c>
       <c r="U5" t="n">
         <v>251.1557452255192</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>133.1298422147123</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>16.30951296757559</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,10 +27794,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>123.4282648842212</v>
+        <v>123.4282648842211</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063304</v>
+        <v>18.07600977063289</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.4149600371267</v>
       </c>
       <c r="S7" t="n">
         <v>205.4595917937733</v>
@@ -27830,19 +27830,19 @@
         <v>223.3958800207158</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2609479597986</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>19.86309695673913</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>10.96887824691071</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>191.5386371561005</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28061,7 +28061,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -28070,16 +28070,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>233.3818217364682</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>60.47797233853976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28623,10 +28623,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.373846028966184</v>
+        <v>2.373846028966191</v>
       </c>
       <c r="H2" t="n">
-        <v>24.31115064414994</v>
+        <v>24.31115064415001</v>
       </c>
       <c r="I2" t="n">
-        <v>91.51769903171892</v>
+        <v>91.51769903171918</v>
       </c>
       <c r="J2" t="n">
-        <v>201.4772144009689</v>
+        <v>201.4772144009694</v>
       </c>
       <c r="K2" t="n">
-        <v>301.9621168071075</v>
+        <v>301.9621168071084</v>
       </c>
       <c r="L2" t="n">
-        <v>374.6107072160814</v>
+        <v>374.6107072160826</v>
       </c>
       <c r="M2" t="n">
-        <v>416.8265915337088</v>
+        <v>416.82659153371</v>
       </c>
       <c r="N2" t="n">
-        <v>423.571281563509</v>
+        <v>423.5712815635102</v>
       </c>
       <c r="O2" t="n">
-        <v>399.9663501129765</v>
+        <v>399.9663501129777</v>
       </c>
       <c r="P2" t="n">
-        <v>341.3620262728738</v>
+        <v>341.3620262728747</v>
       </c>
       <c r="Q2" t="n">
-        <v>256.3486653605222</v>
+        <v>256.3486653605229</v>
       </c>
       <c r="R2" t="n">
-        <v>149.1161056170472</v>
+        <v>149.1161056170477</v>
       </c>
       <c r="S2" t="n">
-        <v>54.09401638506698</v>
+        <v>54.09401638506714</v>
       </c>
       <c r="T2" t="n">
-        <v>10.39151099179948</v>
+        <v>10.39151099179951</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1899076823172947</v>
+        <v>0.1899076823172953</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.2701195993662</v>
+        <v>1.270119599366204</v>
       </c>
       <c r="H3" t="n">
-        <v>12.26668139387883</v>
+        <v>12.26668139387887</v>
       </c>
       <c r="I3" t="n">
-        <v>43.7299949781784</v>
+        <v>43.72999497817852</v>
       </c>
       <c r="J3" t="n">
-        <v>119.9984486401199</v>
+        <v>119.9984486401202</v>
       </c>
       <c r="K3" t="n">
-        <v>205.0964617976553</v>
+        <v>205.0964617976559</v>
       </c>
       <c r="L3" t="n">
-        <v>275.7775033623849</v>
+        <v>275.7775033623857</v>
       </c>
       <c r="M3" t="n">
-        <v>321.8193388394096</v>
+        <v>321.8193388394105</v>
       </c>
       <c r="N3" t="n">
-        <v>330.3369391351593</v>
+        <v>330.3369391351603</v>
       </c>
       <c r="O3" t="n">
-        <v>302.193762749203</v>
+        <v>302.1937627492038</v>
       </c>
       <c r="P3" t="n">
-        <v>242.5371364789721</v>
+        <v>242.5371364789728</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.1296527190961</v>
+        <v>162.1296527190965</v>
       </c>
       <c r="R3" t="n">
-        <v>78.85882916064887</v>
+        <v>78.85882916064909</v>
       </c>
       <c r="S3" t="n">
-        <v>23.59191448822744</v>
+        <v>23.59191448822751</v>
       </c>
       <c r="T3" t="n">
-        <v>5.119473297445341</v>
+        <v>5.119473297445357</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0835604999583027</v>
+        <v>0.08356049995830293</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.064825606026021</v>
+        <v>1.064825606026024</v>
       </c>
       <c r="H4" t="n">
-        <v>9.467267660849537</v>
+        <v>9.467267660849563</v>
       </c>
       <c r="I4" t="n">
-        <v>32.02221004303707</v>
+        <v>32.02221004303716</v>
       </c>
       <c r="J4" t="n">
-        <v>75.28317034603965</v>
+        <v>75.28317034603988</v>
       </c>
       <c r="K4" t="n">
-        <v>123.7133749546595</v>
+        <v>123.7133749546598</v>
       </c>
       <c r="L4" t="n">
-        <v>158.3105269177231</v>
+        <v>158.3105269177236</v>
       </c>
       <c r="M4" t="n">
-        <v>166.9162538609698</v>
+        <v>166.9162538609702</v>
       </c>
       <c r="N4" t="n">
-        <v>162.9473584203274</v>
+        <v>162.9473584203279</v>
       </c>
       <c r="O4" t="n">
-        <v>150.5082592953871</v>
+        <v>150.5082592953875</v>
       </c>
       <c r="P4" t="n">
-        <v>128.7858169324561</v>
+        <v>128.7858169324565</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.16462415550616</v>
+        <v>89.16462415550642</v>
       </c>
       <c r="R4" t="n">
-        <v>47.8784313400427</v>
+        <v>47.87843134004284</v>
       </c>
       <c r="S4" t="n">
-        <v>18.55700624319892</v>
+        <v>18.55700624319897</v>
       </c>
       <c r="T4" t="n">
-        <v>4.549709407565723</v>
+        <v>4.549709407565737</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05808139669232847</v>
+        <v>0.05808139669232864</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.373846028966187</v>
+        <v>2.373846028966191</v>
       </c>
       <c r="H5" t="n">
-        <v>24.31115064414997</v>
+        <v>24.31115064415001</v>
       </c>
       <c r="I5" t="n">
-        <v>91.51769903171902</v>
+        <v>91.51769903171918</v>
       </c>
       <c r="J5" t="n">
-        <v>201.4772144009691</v>
+        <v>201.4772144009694</v>
       </c>
       <c r="K5" t="n">
-        <v>301.9621168071079</v>
+        <v>301.9621168071084</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6107072160819</v>
+        <v>374.6107072160826</v>
       </c>
       <c r="M5" t="n">
-        <v>416.8265915337093</v>
+        <v>416.82659153371</v>
       </c>
       <c r="N5" t="n">
-        <v>423.5712815635095</v>
+        <v>423.5712815635102</v>
       </c>
       <c r="O5" t="n">
-        <v>399.966350112977</v>
+        <v>399.9663501129777</v>
       </c>
       <c r="P5" t="n">
-        <v>341.3620262728742</v>
+        <v>341.3620262728747</v>
       </c>
       <c r="Q5" t="n">
-        <v>256.3486653605225</v>
+        <v>256.3486653605229</v>
       </c>
       <c r="R5" t="n">
-        <v>149.1161056170474</v>
+        <v>149.1161056170477</v>
       </c>
       <c r="S5" t="n">
-        <v>54.09401638506704</v>
+        <v>54.09401638506714</v>
       </c>
       <c r="T5" t="n">
-        <v>10.39151099179949</v>
+        <v>10.39151099179951</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1899076823172949</v>
+        <v>0.1899076823172953</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.270119599366202</v>
+        <v>1.270119599366204</v>
       </c>
       <c r="H6" t="n">
-        <v>12.26668139387885</v>
+        <v>12.26668139387887</v>
       </c>
       <c r="I6" t="n">
-        <v>43.72999497817845</v>
+        <v>43.72999497817852</v>
       </c>
       <c r="J6" t="n">
-        <v>119.99844864012</v>
+        <v>119.9984486401202</v>
       </c>
       <c r="K6" t="n">
-        <v>205.0964617976555</v>
+        <v>205.0964617976559</v>
       </c>
       <c r="L6" t="n">
-        <v>275.7775033623852</v>
+        <v>275.7775033623857</v>
       </c>
       <c r="M6" t="n">
-        <v>321.81933883941</v>
+        <v>321.8193388394105</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3369391351597</v>
+        <v>330.3369391351603</v>
       </c>
       <c r="O6" t="n">
-        <v>302.1937627492033</v>
+        <v>302.1937627492038</v>
       </c>
       <c r="P6" t="n">
-        <v>242.5371364789724</v>
+        <v>242.5371364789728</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.1296527190962</v>
+        <v>162.1296527190965</v>
       </c>
       <c r="R6" t="n">
-        <v>78.85882916064895</v>
+        <v>78.85882916064909</v>
       </c>
       <c r="S6" t="n">
-        <v>23.59191448822746</v>
+        <v>23.59191448822751</v>
       </c>
       <c r="T6" t="n">
-        <v>5.119473297445348</v>
+        <v>5.119473297445357</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08356049995830279</v>
+        <v>0.08356049995830293</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.064825606026022</v>
+        <v>1.064825606026024</v>
       </c>
       <c r="H7" t="n">
-        <v>9.467267660849547</v>
+        <v>9.467267660849563</v>
       </c>
       <c r="I7" t="n">
-        <v>32.02221004303711</v>
+        <v>32.02221004303716</v>
       </c>
       <c r="J7" t="n">
-        <v>75.28317034603974</v>
+        <v>75.28317034603988</v>
       </c>
       <c r="K7" t="n">
-        <v>123.7133749546596</v>
+        <v>123.7133749546598</v>
       </c>
       <c r="L7" t="n">
-        <v>158.3105269177233</v>
+        <v>158.3105269177236</v>
       </c>
       <c r="M7" t="n">
-        <v>166.9162538609699</v>
+        <v>166.9162538609702</v>
       </c>
       <c r="N7" t="n">
-        <v>162.9473584203276</v>
+        <v>162.9473584203279</v>
       </c>
       <c r="O7" t="n">
-        <v>150.5082592953872</v>
+        <v>150.5082592953875</v>
       </c>
       <c r="P7" t="n">
-        <v>128.7858169324563</v>
+        <v>128.7858169324565</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.16462415550626</v>
+        <v>89.16462415550642</v>
       </c>
       <c r="R7" t="n">
-        <v>47.87843134004276</v>
+        <v>47.87843134004284</v>
       </c>
       <c r="S7" t="n">
-        <v>18.55700624319894</v>
+        <v>18.55700624319897</v>
       </c>
       <c r="T7" t="n">
-        <v>4.549709407565729</v>
+        <v>4.549709407565737</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05808139669232854</v>
+        <v>0.05808139669232864</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31846,16 +31846,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N12" t="n">
-        <v>302.5540177178169</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32080,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32092,16 +32092,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32314,7 +32314,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
@@ -32323,7 +32323,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>504.7812948344572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32332,7 +32332,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>134.72848811719</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,34 +32785,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>218.6425359394819</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>384.4721492652009</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,19 +33259,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>469.5567819573404</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33280,13 +33280,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33444,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33499,10 +33499,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>321.1112257697157</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33739,28 +33739,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>714.932815742495</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33979,7 +33979,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>233.3139244897921</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34210,7 +34210,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>549.9198891312103</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34450,28 +34450,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>314.4610577451606</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.43130987428259</v>
+        <v>20.43130987428316</v>
       </c>
       <c r="K2" t="n">
-        <v>406.0176783332917</v>
+        <v>81.87226576212782</v>
       </c>
       <c r="L2" t="n">
-        <v>279.4922077071249</v>
+        <v>544.6361471870198</v>
       </c>
       <c r="M2" t="n">
-        <v>635.9938917992686</v>
+        <v>635.9938917992698</v>
       </c>
       <c r="N2" t="n">
-        <v>631.5051423789023</v>
+        <v>631.5051423789034</v>
       </c>
       <c r="O2" t="n">
-        <v>169.8681386912898</v>
+        <v>550.6683199540363</v>
       </c>
       <c r="P2" t="n">
-        <v>431.9277386890869</v>
+        <v>110.1290305176052</v>
       </c>
       <c r="Q2" t="n">
-        <v>34.04297548607272</v>
+        <v>34.04297548607346</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>119.251857313862</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>67.25502282329629</v>
+        <v>67.25502282329688</v>
       </c>
       <c r="L3" t="n">
-        <v>508.0634688859699</v>
+        <v>508.0634688859707</v>
       </c>
       <c r="M3" t="n">
-        <v>179.6853049173913</v>
+        <v>645.3903686673921</v>
       </c>
       <c r="N3" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="O3" t="n">
-        <v>553.459837581488</v>
+        <v>553.459837581489</v>
       </c>
       <c r="P3" t="n">
-        <v>290.3623301373358</v>
+        <v>153.9864114370432</v>
       </c>
       <c r="Q3" t="n">
-        <v>232.2251663689237</v>
+        <v>22.14787863307501</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>101.4438831287766</v>
+        <v>101.443883128777</v>
       </c>
       <c r="L4" t="n">
-        <v>185.9005521780393</v>
+        <v>185.9005521780397</v>
       </c>
       <c r="M4" t="n">
-        <v>206.5001308228103</v>
+        <v>206.5001308228108</v>
       </c>
       <c r="N4" t="n">
-        <v>207.079530799556</v>
+        <v>207.0795307995565</v>
       </c>
       <c r="O4" t="n">
-        <v>175.0933872094267</v>
+        <v>175.0933872094272</v>
       </c>
       <c r="P4" t="n">
-        <v>126.0643761973496</v>
+        <v>126.06437619735</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.002580903811776</v>
+        <v>3.002580903812031</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>20.43130987428282</v>
+        <v>20.43130987428316</v>
       </c>
       <c r="K5" t="n">
-        <v>81.87226576212731</v>
+        <v>81.87226576212782</v>
       </c>
       <c r="L5" t="n">
-        <v>556.5055067965451</v>
+        <v>556.5055067965458</v>
       </c>
       <c r="M5" t="n">
-        <v>635.993891799269</v>
+        <v>635.9938917992698</v>
       </c>
       <c r="N5" t="n">
-        <v>631.5051423789027</v>
+        <v>631.5051423789034</v>
       </c>
       <c r="O5" t="n">
-        <v>538.798960344515</v>
+        <v>538.79896034451</v>
       </c>
       <c r="P5" t="n">
-        <v>110.1290305176046</v>
+        <v>110.1290305176052</v>
       </c>
       <c r="Q5" t="n">
-        <v>34.04297548607306</v>
+        <v>34.04297548607346</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.2518573138624</v>
       </c>
       <c r="K6" t="n">
-        <v>67.25502282329654</v>
+        <v>331.7202598358755</v>
       </c>
       <c r="L6" t="n">
-        <v>484.9279627618134</v>
+        <v>508.0634688859707</v>
       </c>
       <c r="M6" t="n">
-        <v>645.3903686673916</v>
+        <v>238.5377682167912</v>
       </c>
       <c r="N6" t="n">
-        <v>198.9952270518264</v>
+        <v>198.995227051827</v>
       </c>
       <c r="O6" t="n">
-        <v>553.4598375814884</v>
+        <v>553.459837581489</v>
       </c>
       <c r="P6" t="n">
-        <v>427.0254977045793</v>
+        <v>427.0254977045797</v>
       </c>
       <c r="Q6" t="n">
-        <v>232.2251663689238</v>
+        <v>232.2251663689241</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>101.4438831287768</v>
+        <v>101.443883128777</v>
       </c>
       <c r="L7" t="n">
-        <v>185.9005521780395</v>
+        <v>185.9005521780397</v>
       </c>
       <c r="M7" t="n">
-        <v>206.5001308228105</v>
+        <v>206.5001308228108</v>
       </c>
       <c r="N7" t="n">
-        <v>207.0795307995562</v>
+        <v>207.0795307995565</v>
       </c>
       <c r="O7" t="n">
-        <v>175.0933872094269</v>
+        <v>175.0933872094272</v>
       </c>
       <c r="P7" t="n">
-        <v>126.0643761973498</v>
+        <v>126.06437619735</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002580903811875</v>
+        <v>3.002580903812031</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
         <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>532.8118772529223</v>
       </c>
       <c r="M8" t="n">
-        <v>539.2793368811425</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
         <v>633.6441091513602</v>
@@ -35190,7 +35190,7 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
         <v>35.33749497130819</v>
@@ -35254,25 +35254,25 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>426.5492171615464</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>658.9760949310527</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>404.5131328921288</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N12" t="n">
-        <v>171.2123056344836</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35667,7 +35667,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35728,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35740,16 +35740,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35962,7 +35962,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35971,7 +35971,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>362.6472609124389</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35980,7 +35980,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.754080702859717</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36372,7 +36372,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>91.80490927281522</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36606,7 +36606,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819351</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>245.9177694853267</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36907,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>327.4227480353221</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36928,13 +36928,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>572.7987818204766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,7 +37627,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>94.75954470991793</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>407.3236446867659</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38098,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>174.4792836591391</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3383192.195765171</v>
+        <v>3384952.726067957</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10955577.07554859</v>
+        <v>10955577.07554857</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283222</v>
       </c>
     </row>
     <row r="9">
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>62.88945783845205</v>
       </c>
       <c r="G2" t="n">
-        <v>14.76419198078228</v>
+        <v>412.9288914861689</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7530123241020306</v>
+        <v>0.7530123241016327</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011782</v>
+        <v>154.9260532011781</v>
       </c>
       <c r="T2" t="n">
         <v>212.7043385723318</v>
@@ -718,7 +718,7 @@
         <v>251.1557452255192</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H3" t="n">
-        <v>99.96876284261759</v>
+        <v>99.96876284261756</v>
       </c>
       <c r="I3" t="n">
-        <v>45.66663787323655</v>
+        <v>45.66663787323643</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.29900499199404</v>
+        <v>21.29900499199383</v>
       </c>
       <c r="S3" t="n">
         <v>148.0912566156103</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0452553973763</v>
+        <v>195.0452553973762</v>
       </c>
       <c r="U3" t="n">
         <v>225.8578215810165</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9261537524327</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>30.6078221383912</v>
+        <v>197.5339758908264</v>
       </c>
     </row>
     <row r="5">
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>320.1165074750866</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241020306</v>
+        <v>0.7530123241016327</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>85.92345865547674</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.7043385723318</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H6" t="n">
-        <v>99.96876284261759</v>
+        <v>99.96876284261756</v>
       </c>
       <c r="I6" t="n">
-        <v>45.66663787323655</v>
+        <v>45.66663787323643</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.29900499199404</v>
+        <v>21.29900499199383</v>
       </c>
       <c r="S6" t="n">
         <v>148.0912566156103</v>
       </c>
       <c r="T6" t="n">
-        <v>195.0452553973763</v>
+        <v>195.0452553973762</v>
       </c>
       <c r="U6" t="n">
         <v>225.8578215810165</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.75990484659</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>254.2659537813814</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>266.6599013798519</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,10 +1150,10 @@
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>107.5271626469796</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>7.627958851232951</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>79.2860473850909</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>53.1411766001228</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428256</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>135.3135037226517</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144414</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695582</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128558</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364137</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892427127</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012214</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144414</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695578</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128557</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T24" t="n">
         <v>188.3046392154443</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>102.1557845699719</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012211</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144414</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695578</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128557</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T27" t="n">
         <v>188.3046392154443</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892427217</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012211</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>206.5358970628699</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144414</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695578</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701269</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128557</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T30" t="n">
         <v>188.3046392154443</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788170026</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144414</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695578</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128557</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T33" t="n">
         <v>188.3046392154443</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>51.3656974030938</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444128</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695578</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128557</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T36" t="n">
         <v>188.3046392154443</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>125.8152577453055</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>75.2135622723823</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1233.368087155861</v>
+        <v>902.3051998122908</v>
       </c>
       <c r="C2" t="n">
-        <v>864.4055702154494</v>
+        <v>533.3426828718791</v>
       </c>
       <c r="D2" t="n">
-        <v>864.4055702154494</v>
+        <v>533.3426828718791</v>
       </c>
       <c r="E2" t="n">
-        <v>478.6173176172052</v>
+        <v>533.3426828718791</v>
       </c>
       <c r="F2" t="n">
-        <v>67.63141282759761</v>
+        <v>469.8179779845538</v>
       </c>
       <c r="G2" t="n">
         <v>52.7180875944842</v>
@@ -4330,25 +4330,25 @@
         <v>52.7180875944842</v>
       </c>
       <c r="J2" t="n">
-        <v>72.94508437002453</v>
+        <v>72.94508437002509</v>
       </c>
       <c r="K2" t="n">
-        <v>153.9986274745311</v>
+        <v>153.9986274745325</v>
       </c>
       <c r="L2" t="n">
-        <v>693.1884131896807</v>
+        <v>704.9390792031138</v>
       </c>
       <c r="M2" t="n">
-        <v>1322.822366070958</v>
+        <v>1334.573032084392</v>
       </c>
       <c r="N2" t="n">
-        <v>1948.012457026072</v>
+        <v>1959.763123039507</v>
       </c>
       <c r="O2" t="n">
-        <v>2493.174093780568</v>
+        <v>2493.174093780566</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.201833992997</v>
+        <v>2602.201833992996</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.90437972421</v>
@@ -4357,25 +4357,25 @@
         <v>2635.143761215016</v>
       </c>
       <c r="S2" t="n">
-        <v>2478.652798385543</v>
+        <v>2478.652798385544</v>
       </c>
       <c r="T2" t="n">
-        <v>2263.799931140763</v>
+        <v>2263.799931140764</v>
       </c>
       <c r="U2" t="n">
         <v>2010.107259195795</v>
       </c>
       <c r="V2" t="n">
-        <v>2010.107259195795</v>
+        <v>1679.044371852224</v>
       </c>
       <c r="W2" t="n">
-        <v>2010.107259195795</v>
+        <v>1679.044371852224</v>
       </c>
       <c r="X2" t="n">
-        <v>2010.107259195795</v>
+        <v>1679.044371852224</v>
       </c>
       <c r="Y2" t="n">
-        <v>1619.967927219983</v>
+        <v>1288.905039876413</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>337.2724292911487</v>
       </c>
       <c r="G3" t="n">
-        <v>199.8245529640335</v>
+        <v>199.8245529640336</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815741</v>
+        <v>98.84600463815735</v>
       </c>
       <c r="I3" t="n">
         <v>52.7180875944842</v>
@@ -4412,22 +4412,22 @@
         <v>52.7180875944842</v>
       </c>
       <c r="K3" t="n">
-        <v>119.3005601895481</v>
+        <v>381.1211448320014</v>
       </c>
       <c r="L3" t="n">
-        <v>622.2833943866591</v>
+        <v>884.1039790291131</v>
       </c>
       <c r="M3" t="n">
-        <v>1261.219859367377</v>
+        <v>1061.992430897332</v>
       </c>
       <c r="N3" t="n">
-        <v>1913.606193349119</v>
+        <v>1643.297497944256</v>
       </c>
       <c r="O3" t="n">
-        <v>2461.531432554793</v>
+        <v>2191.222737149931</v>
       </c>
       <c r="P3" t="n">
-        <v>2613.977979877466</v>
+        <v>2613.977979877465</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.90437972421</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>835.1862275326391</v>
+        <v>666.5739510150303</v>
       </c>
       <c r="C4" t="n">
-        <v>666.2500446047322</v>
+        <v>497.6377680871234</v>
       </c>
       <c r="D4" t="n">
-        <v>516.1334051923965</v>
+        <v>347.5211286747876</v>
       </c>
       <c r="E4" t="n">
-        <v>368.2203116100034</v>
+        <v>199.6080350923945</v>
       </c>
       <c r="F4" t="n">
-        <v>221.330364112093</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="G4" t="n">
         <v>52.7180875944842</v>
@@ -4491,49 +4491,49 @@
         <v>52.7180875944842</v>
       </c>
       <c r="K4" t="n">
-        <v>153.1475318919734</v>
+        <v>153.1475318919737</v>
       </c>
       <c r="L4" t="n">
-        <v>337.1890785482327</v>
+        <v>337.1890785482335</v>
       </c>
       <c r="M4" t="n">
-        <v>541.6242080628155</v>
+        <v>541.6242080628167</v>
       </c>
       <c r="N4" t="n">
-        <v>746.6329435543764</v>
+        <v>746.632943554378</v>
       </c>
       <c r="O4" t="n">
-        <v>919.9753968917094</v>
+        <v>919.9753968917113</v>
       </c>
       <c r="P4" t="n">
-        <v>1044.779129327086</v>
+        <v>1044.779129327088</v>
       </c>
       <c r="Q4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="R4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="S4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="T4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="U4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="V4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="W4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="X4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="Y4" t="n">
-        <v>1016.834692362879</v>
+        <v>848.22241584527</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1527.341701831512</v>
+        <v>1203.99169428092</v>
       </c>
       <c r="C5" t="n">
-        <v>1158.3791848911</v>
+        <v>835.0291773405078</v>
       </c>
       <c r="D5" t="n">
-        <v>800.1134862843498</v>
+        <v>476.7634787337573</v>
       </c>
       <c r="E5" t="n">
         <v>476.7634787337573</v>
@@ -4567,25 +4567,25 @@
         <v>52.7180875944842</v>
       </c>
       <c r="J5" t="n">
-        <v>72.94508437002453</v>
+        <v>240.3507333903781</v>
       </c>
       <c r="K5" t="n">
-        <v>153.9986274745311</v>
+        <v>642.3082349403386</v>
       </c>
       <c r="L5" t="n">
-        <v>704.9390792031114</v>
+        <v>1042.40770467237</v>
       </c>
       <c r="M5" t="n">
-        <v>1334.573032084389</v>
+        <v>1227.023259395744</v>
       </c>
       <c r="N5" t="n">
-        <v>1959.763123039503</v>
+        <v>1419.239895182996</v>
       </c>
       <c r="O5" t="n">
-        <v>2493.174093780568</v>
+        <v>1964.401531937493</v>
       </c>
       <c r="P5" t="n">
-        <v>2602.201833992997</v>
+        <v>2392.009993239691</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.90437972421</v>
@@ -4594,25 +4594,25 @@
         <v>2635.143761215016</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.143761215016</v>
+        <v>2548.352388835747</v>
       </c>
       <c r="T5" t="n">
-        <v>2635.143761215016</v>
+        <v>2333.499521590967</v>
       </c>
       <c r="U5" t="n">
-        <v>2635.143761215016</v>
+        <v>2333.499521590967</v>
       </c>
       <c r="V5" t="n">
-        <v>2304.080873871445</v>
+        <v>2333.499521590967</v>
       </c>
       <c r="W5" t="n">
-        <v>2304.080873871445</v>
+        <v>1980.730866320853</v>
       </c>
       <c r="X5" t="n">
-        <v>2304.080873871445</v>
+        <v>1980.730866320853</v>
       </c>
       <c r="Y5" t="n">
-        <v>1913.941541895634</v>
+        <v>1590.591534345041</v>
       </c>
     </row>
     <row r="6">
@@ -4631,40 +4631,40 @@
         <v>643.0444422697199</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642644</v>
+        <v>483.8069872642643</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911494</v>
+        <v>337.2724292911493</v>
       </c>
       <c r="G6" t="n">
-        <v>199.8245529640338</v>
+        <v>199.8245529640337</v>
       </c>
       <c r="H6" t="n">
-        <v>98.8460046381575</v>
+        <v>98.84600463815735</v>
       </c>
       <c r="I6" t="n">
         <v>52.7180875944842</v>
       </c>
       <c r="J6" t="n">
-        <v>170.7774263352079</v>
+        <v>170.7774263352082</v>
       </c>
       <c r="K6" t="n">
-        <v>499.1804835727247</v>
+        <v>499.1804835727255</v>
       </c>
       <c r="L6" t="n">
-        <v>1002.163317769836</v>
+        <v>1002.163317769837</v>
       </c>
       <c r="M6" t="n">
-        <v>1238.315708304459</v>
+        <v>1238.315708304456</v>
       </c>
       <c r="N6" t="n">
-        <v>1435.320983085768</v>
+        <v>1435.320983085766</v>
       </c>
       <c r="O6" t="n">
-        <v>1983.246222291442</v>
+        <v>1983.246222291441</v>
       </c>
       <c r="P6" t="n">
-        <v>2406.001465018976</v>
+        <v>2406.001465018975</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.90437972421</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>375.9572047108659</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="C7" t="n">
-        <v>207.021021782959</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="D7" t="n">
-        <v>207.021021782959</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="E7" t="n">
-        <v>207.021021782959</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="F7" t="n">
-        <v>207.021021782959</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="G7" t="n">
-        <v>207.021021782959</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H7" t="n">
         <v>52.7180875944842</v>
@@ -4728,49 +4728,49 @@
         <v>52.7180875944842</v>
       </c>
       <c r="K7" t="n">
-        <v>153.1475318919734</v>
+        <v>153.1475318919737</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1890785482327</v>
+        <v>337.1890785482335</v>
       </c>
       <c r="M7" t="n">
-        <v>541.6242080628155</v>
+        <v>541.6242080628167</v>
       </c>
       <c r="N7" t="n">
-        <v>746.6329435543764</v>
+        <v>746.632943554378</v>
       </c>
       <c r="O7" t="n">
-        <v>919.9753968917094</v>
+        <v>919.9753968917113</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.779129327086</v>
+        <v>1044.779129327088</v>
       </c>
       <c r="Q7" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="R7" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="S7" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="T7" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="U7" t="n">
-        <v>1047.75168442186</v>
+        <v>790.9173876729923</v>
       </c>
       <c r="V7" t="n">
-        <v>1047.75168442186</v>
+        <v>790.9173876729923</v>
       </c>
       <c r="W7" t="n">
-        <v>778.3982486846357</v>
+        <v>501.5002176360317</v>
       </c>
       <c r="X7" t="n">
-        <v>778.3982486846357</v>
+        <v>273.5106667380143</v>
       </c>
       <c r="Y7" t="n">
-        <v>557.6056695411056</v>
+        <v>52.7180875944842</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1698.381133855676</v>
+        <v>1180.762737932995</v>
       </c>
       <c r="C8" t="n">
-        <v>1329.418616915265</v>
+        <v>1180.762737932995</v>
       </c>
       <c r="D8" t="n">
-        <v>971.1529183085142</v>
+        <v>1180.762737932995</v>
       </c>
       <c r="E8" t="n">
-        <v>585.3646657102699</v>
+        <v>794.9744853347507</v>
       </c>
       <c r="F8" t="n">
-        <v>174.3787609206624</v>
+        <v>383.9885805451432</v>
       </c>
       <c r="G8" t="n">
-        <v>161.3313831974939</v>
+        <v>370.9412028219747</v>
       </c>
       <c r="H8" t="n">
-        <v>161.3313831974939</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I8" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J8" t="n">
-        <v>73.9523375878675</v>
+        <v>73.95233758786752</v>
       </c>
       <c r="K8" t="n">
-        <v>156.5154921624599</v>
+        <v>477.419450607913</v>
       </c>
       <c r="L8" t="n">
-        <v>683.9992506428529</v>
+        <v>1030.232708854112</v>
       </c>
       <c r="M8" t="n">
-        <v>1315.717061626165</v>
+        <v>1216.93212167952</v>
       </c>
       <c r="N8" t="n">
-        <v>1943.024729686011</v>
+        <v>1844.239789739366</v>
       </c>
       <c r="O8" t="n">
-        <v>2490.185934453089</v>
+        <v>2391.400994506444</v>
       </c>
       <c r="P8" t="n">
-        <v>2600.920259702615</v>
+        <v>2600.920259702616</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R8" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="U8" t="n">
-        <v>2382.212676469361</v>
+        <v>2628.199370783571</v>
       </c>
       <c r="V8" t="n">
-        <v>2051.14978912579</v>
+        <v>2297.136483440001</v>
       </c>
       <c r="W8" t="n">
-        <v>1698.381133855676</v>
+        <v>1944.367828169886</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.381133855676</v>
+        <v>1570.902069908807</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.381133855676</v>
+        <v>1180.762737932995</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>199.5389224593631</v>
       </c>
       <c r="H9" t="n">
-        <v>98.62294460416771</v>
+        <v>98.62294460416773</v>
       </c>
       <c r="I9" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J9" t="n">
-        <v>171.3773394513799</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K9" t="n">
-        <v>500.8057437571897</v>
+        <v>120.3259072578413</v>
       </c>
       <c r="L9" t="n">
-        <v>1005.167283623308</v>
+        <v>624.6874471239598</v>
       </c>
       <c r="M9" t="n">
-        <v>1645.712633090413</v>
+        <v>1265.232796591064</v>
       </c>
       <c r="N9" t="n">
-        <v>1844.369374743078</v>
+        <v>1463.889538243729</v>
       </c>
       <c r="O9" t="n">
-        <v>2003.881687411838</v>
+        <v>2013.325546996452</v>
       </c>
       <c r="P9" t="n">
-        <v>2404.349688975046</v>
+        <v>2437.293315477289</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.063145035514</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>368.5442180203015</v>
+        <v>132.8050041450811</v>
       </c>
       <c r="C10" t="n">
-        <v>199.6080350923946</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="D10" t="n">
-        <v>199.6080350923946</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="E10" t="n">
-        <v>199.6080350923946</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="F10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="G10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="H10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K10" t="n">
         <v>153.766017190094</v>
@@ -5001,13 +5001,13 @@
         <v>1052.652769053829</v>
       </c>
       <c r="W10" t="n">
-        <v>998.9748128920887</v>
+        <v>763.2355990168683</v>
       </c>
       <c r="X10" t="n">
-        <v>770.9852619940714</v>
+        <v>535.2460481188509</v>
       </c>
       <c r="Y10" t="n">
-        <v>550.1926828505412</v>
+        <v>314.4534689753208</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5260,22 +5260,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5287,13 +5287,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P15" t="n">
         <v>2516.421633107662</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,16 +5533,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1965.532750177311</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>779.6143379232838</v>
+        <v>653.7474797708873</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>779.6143379232838</v>
+        <v>835.395944601127</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819251</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111687</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.852361107575</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332378</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014765</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355919</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291067988</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694682</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852228</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778468</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967198</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354686</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.774219330013</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>314.239661356898</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H21" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273863</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803922</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516108</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167367</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793916</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348519</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5864,7 +5864,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.615714228346</v>
       </c>
       <c r="V21" t="n">
         <v>1781.463605996603</v>
@@ -5873,7 +5873,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.374749062869</v>
       </c>
       <c r="Y21" t="n">
         <v>1111.614450297915</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400608</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121539</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121539</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121539</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121539</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270338</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.052681478295</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038325</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797711</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910804</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570811</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279794</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853352</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358025</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832652</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487557</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510498</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854696</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648809</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611848</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138306</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703005</v>
       </c>
     </row>
     <row r="23">
@@ -5977,49 +5977,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192518</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311169</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075756</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332378</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014766</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355921</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.42229106799</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694684</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.26572885223</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778468</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967198</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354686</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.774219330013</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>314.239661356898</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273868</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803923</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516111</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167367</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793916</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.45752234852</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6101,7 +6101,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.615714228346</v>
       </c>
       <c r="V24" t="n">
         <v>1781.463605996603</v>
@@ -6110,7 +6110,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.374749062869</v>
       </c>
       <c r="Y24" t="n">
         <v>1111.614450297915</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400617</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121548</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782951</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038325</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797713</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570811</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279795</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853353</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580251</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832653</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487558</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510499</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854697</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564881</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611849</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138315</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703014</v>
       </c>
     </row>
     <row r="26">
@@ -6214,49 +6214,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192518</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.192580311169</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075756</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332378</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014795</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355949</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068018</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694712</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778468</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967198</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354686</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.774219330013</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>314.239661356898</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273868</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803923</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245814</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403377</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266887</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821491</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6338,7 +6338,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.615714228346</v>
       </c>
       <c r="V27" t="n">
         <v>1781.463605996603</v>
@@ -6347,7 +6347,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.374749062869</v>
       </c>
       <c r="Y27" t="n">
         <v>1111.614450297915</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400617</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121548</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>261.012762333092</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782951</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038325</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797713</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570811</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279795</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853353</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580251</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832653</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487558</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510499</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854697</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564881</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611849</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138315</v>
       </c>
       <c r="Y28" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703014</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797174</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192508</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111688</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075752</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332378</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014767</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355921</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694704</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852251</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398587</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492571</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474776</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466566</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797174</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273854</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803922</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>280.8495004245814</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>776.1751066403377</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1373.553594266887</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2001.151557821491</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797174</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797174</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782949</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038324</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797711</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910804</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570811</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279795</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853352</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580251</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="32">
@@ -6676,55 +6676,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192518</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311169</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075756</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332378</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014766</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355921</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106799</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694684</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.26572885223</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778468</v>
       </c>
       <c r="C33" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967198</v>
       </c>
       <c r="D33" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354686</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.774219330013</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>314.239661356898</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273868</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803923</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516111</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167367</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793916</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.45752234852</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6812,7 +6812,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.615714228346</v>
       </c>
       <c r="V33" t="n">
         <v>1781.463605996603</v>
@@ -6821,7 +6821,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.374749062869</v>
       </c>
       <c r="Y33" t="n">
         <v>1111.614450297915</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>983.3556038098146</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>814.4194208819077</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>664.302781469572</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>516.3896878871789</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>369.4997403892685</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578606</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000586</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782951</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038325</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797713</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570811</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279795</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853353</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580251</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580251</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.963083580251</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2446.963083580251</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>2157.887856924449</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1903.203368718562</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1613.786198681602</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1385.796647783584</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1165.004068640054</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362677</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111685</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.852361107575</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332378</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014766</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.89852635592</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068016</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778468</v>
       </c>
       <c r="C36" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967198</v>
       </c>
       <c r="D36" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354686</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.774219330013</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>314.239661356898</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H36" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273866</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803923</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516111</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167367</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793916</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.45752234852</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7049,7 +7049,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.615714228346</v>
       </c>
       <c r="V36" t="n">
         <v>1781.463605996603</v>
@@ -7058,7 +7058,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.374749062869</v>
       </c>
       <c r="Y36" t="n">
         <v>1111.614450297915</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327552</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>594.8179559048483</v>
       </c>
       <c r="D37" t="n">
-        <v>513.8536007400712</v>
+        <v>444.7013164925125</v>
       </c>
       <c r="E37" t="n">
-        <v>513.8536007400712</v>
+        <v>444.7013164925125</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>444.7013164925125</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000586</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478295</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038325</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797713</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570811</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279795</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853353</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580251</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580251</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580251</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603192</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.28639194739</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741503</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704542</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806525</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>945.4026036629949</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7265,7 +7265,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>726.955532171245</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>558.0193492433381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D40" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1901.48778528588</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1646.803297079993</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1357.386127043032</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1129.396576145015</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.6039970014847</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>405.7918549409245</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -7993,7 +7993,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>368.9308216532116</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8057,25 +8057,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.839178026546477</v>
+        <v>6.839178026546165</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>459.9808678792256</v>
+        <v>388.181608349105</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>45.42368237240066</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>265.2965862711075</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>368.930821653219</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>58.85246329939895</v>
+        <v>58.85246329939372</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8455,13 +8455,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>392.0758612516564</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
@@ -8470,7 +8470,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>99.78276762287422</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>294.7256303393017</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>176.8008973295429</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>3.032596396224108e-11</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>2.83648660115432e-11</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>2.819433575496078e-11</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>2.83648660115432e-11</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>-3.282327221323107e-14</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.2291039219413</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>83.27114962944304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.2291039219527</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856585</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844824047</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856582</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>65.54986409394019</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>12.04875628922491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.22910392195209</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>114.1584408891751</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012211</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>35.40333084624569</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>39.7088805469634</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012211</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>119.8635921600918</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>210.9709121168618</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>751679.2865730013</v>
+        <v>751679.2865730012</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>751679.2865730013</v>
+        <v>751679.2865730012</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>751331.1081090372</v>
+        <v>751331.1081090373</v>
       </c>
     </row>
     <row r="5">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>691564.1054216162</v>
+        <v>691564.1054216165</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>691564.1054216162</v>
+        <v>691564.1054216163</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>691564.1054216162</v>
+        <v>691564.1054216165</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>691564.1054216162</v>
+        <v>691564.105421616</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>691564.1054216162</v>
+        <v>691564.1054216167</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>691564.1054216162</v>
+        <v>691564.1054216161</v>
       </c>
     </row>
     <row r="14">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="F2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="G2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.9397210049</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210049</v>
+      </c>
+      <c r="K2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="H2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>726431.9397210049</v>
+      </c>
+      <c r="M2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>726431.9397210055</v>
       </c>
-      <c r="K2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210053</v>
-      </c>
       <c r="O2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="P2" t="n">
         <v>726431.9397210052</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>789845.9331222414</v>
+        <v>789845.933122243</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2553.741448474159</v>
+        <v>2553.741448472796</v>
       </c>
       <c r="E3" t="n">
-        <v>775624.2722329923</v>
+        <v>775624.2722329927</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>-2.685873705898605e-09</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>128024.1174663868</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.767021553358063e-09</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184436.3405408958</v>
+        <v>184436.3405408955</v>
       </c>
       <c r="C4" t="n">
-        <v>184436.3405408958</v>
+        <v>184436.3405408955</v>
       </c>
       <c r="D4" t="n">
         <v>183932.5854660025</v>
@@ -26432,31 +26432,31 @@
         <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531694995</v>
       </c>
       <c r="H4" t="n">
+        <v>6287.480531695595</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6287.480531695559</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6287.480531695557</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6287.48053169541</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6287.480531695559</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6287.480531695101</v>
+      </c>
+      <c r="N4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="I4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6287.480531695052</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6287.480531695052</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6287.480531695052</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6287.480531695052</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6287.480531695052</v>
-      </c>
       <c r="O4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695025</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695052</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86566.12012538442</v>
+        <v>86566.12012538445</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.12012538442</v>
+        <v>86566.12012538445</v>
       </c>
       <c r="D5" t="n">
-        <v>86631.1255591778</v>
+        <v>86631.12555917782</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26487,22 +26487,22 @@
         <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239069</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-321910.800910667</v>
+        <v>-321910.8009106682</v>
       </c>
       <c r="C6" t="n">
-        <v>467935.1322115746</v>
+        <v>467935.1322115749</v>
       </c>
       <c r="D6" t="n">
-        <v>465820.1404042008</v>
+        <v>465820.1404042022</v>
       </c>
       <c r="E6" t="n">
-        <v>-156949.7221219462</v>
+        <v>-156637.0807930251</v>
       </c>
       <c r="F6" t="n">
-        <v>618674.5501110461</v>
+        <v>618987.1914399677</v>
       </c>
       <c r="G6" t="n">
-        <v>618674.5501110462</v>
+        <v>618987.1914399674</v>
       </c>
       <c r="H6" t="n">
-        <v>618674.5501110461</v>
+        <v>618987.1914399709</v>
       </c>
       <c r="I6" t="n">
-        <v>618674.5501110462</v>
+        <v>618987.1914399669</v>
       </c>
       <c r="J6" t="n">
-        <v>446257.408728906</v>
+        <v>446570.0500578263</v>
       </c>
       <c r="K6" t="n">
-        <v>618674.5501110461</v>
+        <v>618987.1914399678</v>
       </c>
       <c r="L6" t="n">
-        <v>618674.5501110462</v>
+        <v>618987.1914399667</v>
       </c>
       <c r="M6" t="n">
-        <v>490650.4326446595</v>
+        <v>490963.0739735806</v>
       </c>
       <c r="N6" t="n">
-        <v>618674.5501110462</v>
+        <v>618987.191439964</v>
       </c>
       <c r="O6" t="n">
-        <v>618674.5501110462</v>
+        <v>618987.1914399677</v>
       </c>
       <c r="P6" t="n">
-        <v>618674.5501110461</v>
+        <v>618987.1914399674</v>
       </c>
     </row>
   </sheetData>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.063161046444251e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053405</v>
+        <v>590.4941997053421</v>
       </c>
       <c r="C3" t="n">
-        <v>590.4941997053405</v>
+        <v>590.4941997053421</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26755,22 +26755,22 @@
         <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341668</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341669</v>
       </c>
       <c r="J3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341669</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341669</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341669</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341669</v>
       </c>
       <c r="N3" t="n">
         <v>1367.975500341674</v>
@@ -26789,37 +26789,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="D4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099647</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.063161046444251e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053405</v>
+        <v>590.4941997053421</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.981900632724546</v>
+        <v>2.981900632722954</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036091</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>-4.585868917683852e-12</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.456968210637569e-12</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.7321931685958</v>
+        <v>513.7321931685959</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685958</v>
+        <v>513.7321931685959</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685958</v>
+        <v>513.7321931685959</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>343.9865879032594</v>
       </c>
       <c r="G2" t="n">
-        <v>398.1646995053866</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>315.1636514716171</v>
       </c>
       <c r="I2" t="n">
-        <v>118.9581905386867</v>
+        <v>118.9581905386865</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9261537524327</v>
       </c>
       <c r="H4" t="n">
         <v>152.75990484659</v>
       </c>
       <c r="I4" t="n">
-        <v>123.4282648842211</v>
+        <v>123.428264884221</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063289</v>
+        <v>18.07600977063269</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371267</v>
+        <v>129.4149600371265</v>
       </c>
       <c r="S4" t="n">
-        <v>205.4595917937733</v>
+        <v>205.4595917937732</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3958800207158</v>
+        <v>223.3958800207157</v>
       </c>
       <c r="U4" t="n">
         <v>286.2609479597986</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.9768312137036</v>
+        <v>21.05067746126838</v>
       </c>
     </row>
     <row r="5">
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>61.81386259717516</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>315.1636514716171</v>
       </c>
       <c r="I5" t="n">
-        <v>118.9581905386867</v>
+        <v>118.9581905386865</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011782</v>
+        <v>69.00259454570133</v>
       </c>
       <c r="T5" t="n">
-        <v>212.7043385723318</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1557452255192</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27791,13 +27791,13 @@
         <v>166.9261537524327</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.75990484659</v>
       </c>
       <c r="I7" t="n">
-        <v>123.4282648842211</v>
+        <v>123.428264884221</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063289</v>
+        <v>18.07600977063269</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371267</v>
+        <v>129.4149600371265</v>
       </c>
       <c r="S7" t="n">
-        <v>205.4595917937733</v>
+        <v>205.4595917937732</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3958800207158</v>
+        <v>223.3958800207157</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2609479597986</v>
+        <v>31.99499417841719</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>19.86309695673913</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>10.96887824691071</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>243.5268273710677</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>87.96077371353694</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>233.3818217364682</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29571,7 +29571,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-12</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.373846028966191</v>
+        <v>2.373846028966198</v>
       </c>
       <c r="H2" t="n">
-        <v>24.31115064415001</v>
+        <v>24.31115064415008</v>
       </c>
       <c r="I2" t="n">
-        <v>91.51769903171918</v>
+        <v>91.51769903171942</v>
       </c>
       <c r="J2" t="n">
-        <v>201.4772144009694</v>
+        <v>201.47721440097</v>
       </c>
       <c r="K2" t="n">
-        <v>301.9621168071084</v>
+        <v>301.9621168071092</v>
       </c>
       <c r="L2" t="n">
-        <v>374.6107072160826</v>
+        <v>374.6107072160835</v>
       </c>
       <c r="M2" t="n">
-        <v>416.82659153371</v>
+        <v>416.8265915337112</v>
       </c>
       <c r="N2" t="n">
-        <v>423.5712815635102</v>
+        <v>423.5712815635114</v>
       </c>
       <c r="O2" t="n">
-        <v>399.9663501129777</v>
+        <v>399.9663501129788</v>
       </c>
       <c r="P2" t="n">
-        <v>341.3620262728747</v>
+        <v>341.3620262728757</v>
       </c>
       <c r="Q2" t="n">
-        <v>256.3486653605229</v>
+        <v>256.3486653605236</v>
       </c>
       <c r="R2" t="n">
-        <v>149.1161056170477</v>
+        <v>149.116105617048</v>
       </c>
       <c r="S2" t="n">
-        <v>54.09401638506714</v>
+        <v>54.09401638506728</v>
       </c>
       <c r="T2" t="n">
-        <v>10.39151099179951</v>
+        <v>10.39151099179954</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1899076823172953</v>
+        <v>0.1899076823172958</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.270119599366204</v>
+        <v>1.270119599366208</v>
       </c>
       <c r="H3" t="n">
-        <v>12.26668139387887</v>
+        <v>12.2666813938789</v>
       </c>
       <c r="I3" t="n">
-        <v>43.72999497817852</v>
+        <v>43.72999497817865</v>
       </c>
       <c r="J3" t="n">
-        <v>119.9984486401202</v>
+        <v>119.9984486401205</v>
       </c>
       <c r="K3" t="n">
-        <v>205.0964617976559</v>
+        <v>205.0964617976564</v>
       </c>
       <c r="L3" t="n">
-        <v>275.7775033623857</v>
+        <v>275.7775033623865</v>
       </c>
       <c r="M3" t="n">
-        <v>321.8193388394105</v>
+        <v>321.8193388394114</v>
       </c>
       <c r="N3" t="n">
-        <v>330.3369391351603</v>
+        <v>330.3369391351612</v>
       </c>
       <c r="O3" t="n">
-        <v>302.1937627492038</v>
+        <v>302.1937627492047</v>
       </c>
       <c r="P3" t="n">
-        <v>242.5371364789728</v>
+        <v>242.5371364789735</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.1296527190965</v>
+        <v>162.129652719097</v>
       </c>
       <c r="R3" t="n">
-        <v>78.85882916064909</v>
+        <v>78.85882916064931</v>
       </c>
       <c r="S3" t="n">
-        <v>23.59191448822751</v>
+        <v>23.59191448822757</v>
       </c>
       <c r="T3" t="n">
-        <v>5.119473297445357</v>
+        <v>5.11947329744537</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08356049995830293</v>
+        <v>0.08356049995830317</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.064825606026024</v>
+        <v>1.064825606026027</v>
       </c>
       <c r="H4" t="n">
-        <v>9.467267660849563</v>
+        <v>9.46726766084959</v>
       </c>
       <c r="I4" t="n">
-        <v>32.02221004303716</v>
+        <v>32.02221004303725</v>
       </c>
       <c r="J4" t="n">
-        <v>75.28317034603988</v>
+        <v>75.28317034604008</v>
       </c>
       <c r="K4" t="n">
-        <v>123.7133749546598</v>
+        <v>123.7133749546602</v>
       </c>
       <c r="L4" t="n">
-        <v>158.3105269177236</v>
+        <v>158.310526917724</v>
       </c>
       <c r="M4" t="n">
-        <v>166.9162538609702</v>
+        <v>166.9162538609707</v>
       </c>
       <c r="N4" t="n">
-        <v>162.9473584203279</v>
+        <v>162.9473584203284</v>
       </c>
       <c r="O4" t="n">
-        <v>150.5082592953875</v>
+        <v>150.5082592953879</v>
       </c>
       <c r="P4" t="n">
-        <v>128.7858169324565</v>
+        <v>128.7858169324568</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.16462415550642</v>
+        <v>89.16462415550666</v>
       </c>
       <c r="R4" t="n">
-        <v>47.87843134004284</v>
+        <v>47.87843134004297</v>
       </c>
       <c r="S4" t="n">
-        <v>18.55700624319897</v>
+        <v>18.55700624319902</v>
       </c>
       <c r="T4" t="n">
-        <v>4.549709407565737</v>
+        <v>4.549709407565749</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05808139669232864</v>
+        <v>0.05808139669232879</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.373846028966191</v>
+        <v>2.373846028966198</v>
       </c>
       <c r="H5" t="n">
-        <v>24.31115064415001</v>
+        <v>24.31115064415008</v>
       </c>
       <c r="I5" t="n">
-        <v>91.51769903171918</v>
+        <v>91.51769903171942</v>
       </c>
       <c r="J5" t="n">
-        <v>201.4772144009694</v>
+        <v>201.47721440097</v>
       </c>
       <c r="K5" t="n">
-        <v>301.9621168071084</v>
+        <v>301.9621168071092</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6107072160826</v>
+        <v>374.6107072160835</v>
       </c>
       <c r="M5" t="n">
-        <v>416.82659153371</v>
+        <v>416.8265915337112</v>
       </c>
       <c r="N5" t="n">
-        <v>423.5712815635102</v>
+        <v>423.5712815635114</v>
       </c>
       <c r="O5" t="n">
-        <v>399.9663501129777</v>
+        <v>399.9663501129788</v>
       </c>
       <c r="P5" t="n">
-        <v>341.3620262728747</v>
+        <v>341.3620262728757</v>
       </c>
       <c r="Q5" t="n">
-        <v>256.3486653605229</v>
+        <v>256.3486653605236</v>
       </c>
       <c r="R5" t="n">
-        <v>149.1161056170477</v>
+        <v>149.116105617048</v>
       </c>
       <c r="S5" t="n">
-        <v>54.09401638506714</v>
+        <v>54.09401638506728</v>
       </c>
       <c r="T5" t="n">
-        <v>10.39151099179951</v>
+        <v>10.39151099179954</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1899076823172953</v>
+        <v>0.1899076823172958</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.270119599366204</v>
+        <v>1.270119599366208</v>
       </c>
       <c r="H6" t="n">
-        <v>12.26668139387887</v>
+        <v>12.2666813938789</v>
       </c>
       <c r="I6" t="n">
-        <v>43.72999497817852</v>
+        <v>43.72999497817865</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9984486401202</v>
+        <v>119.9984486401205</v>
       </c>
       <c r="K6" t="n">
-        <v>205.0964617976559</v>
+        <v>205.0964617976564</v>
       </c>
       <c r="L6" t="n">
-        <v>275.7775033623857</v>
+        <v>275.7775033623865</v>
       </c>
       <c r="M6" t="n">
-        <v>321.8193388394105</v>
+        <v>321.8193388394114</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3369391351603</v>
+        <v>330.3369391351612</v>
       </c>
       <c r="O6" t="n">
-        <v>302.1937627492038</v>
+        <v>302.1937627492047</v>
       </c>
       <c r="P6" t="n">
-        <v>242.5371364789728</v>
+        <v>242.5371364789735</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.1296527190965</v>
+        <v>162.129652719097</v>
       </c>
       <c r="R6" t="n">
-        <v>78.85882916064909</v>
+        <v>78.85882916064931</v>
       </c>
       <c r="S6" t="n">
-        <v>23.59191448822751</v>
+        <v>23.59191448822757</v>
       </c>
       <c r="T6" t="n">
-        <v>5.119473297445357</v>
+        <v>5.11947329744537</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08356049995830293</v>
+        <v>0.08356049995830317</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.064825606026024</v>
+        <v>1.064825606026027</v>
       </c>
       <c r="H7" t="n">
-        <v>9.467267660849563</v>
+        <v>9.46726766084959</v>
       </c>
       <c r="I7" t="n">
-        <v>32.02221004303716</v>
+        <v>32.02221004303725</v>
       </c>
       <c r="J7" t="n">
-        <v>75.28317034603988</v>
+        <v>75.28317034604008</v>
       </c>
       <c r="K7" t="n">
-        <v>123.7133749546598</v>
+        <v>123.7133749546602</v>
       </c>
       <c r="L7" t="n">
-        <v>158.3105269177236</v>
+        <v>158.310526917724</v>
       </c>
       <c r="M7" t="n">
-        <v>166.9162538609702</v>
+        <v>166.9162538609707</v>
       </c>
       <c r="N7" t="n">
-        <v>162.9473584203279</v>
+        <v>162.9473584203284</v>
       </c>
       <c r="O7" t="n">
-        <v>150.5082592953875</v>
+        <v>150.5082592953879</v>
       </c>
       <c r="P7" t="n">
-        <v>128.7858169324565</v>
+        <v>128.7858169324568</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.16462415550642</v>
+        <v>89.16462415550666</v>
       </c>
       <c r="R7" t="n">
-        <v>47.87843134004284</v>
+        <v>47.87843134004297</v>
       </c>
       <c r="S7" t="n">
-        <v>18.55700624319897</v>
+        <v>18.55700624319902</v>
       </c>
       <c r="T7" t="n">
-        <v>4.549709407565737</v>
+        <v>4.549709407565749</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05808139669232864</v>
+        <v>0.05808139669232879</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32089,13 +32089,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32317,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543356</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32332,7 +32332,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.49939899634841</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135317</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067223</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663263</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817546</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162525</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175635</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159384</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.586862645999</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236474</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669198</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292895</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651518</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078727</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659437</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521088</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>101.3076196007745</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420743</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422566</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473046</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.546647686209</v>
       </c>
       <c r="N21" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071753</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558138</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742415</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937729</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275946</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189893</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121561</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869244</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796254</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355166</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588138</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392029</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106772</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920043</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417302</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515919</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670473</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532748</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099318</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467216</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348412</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135319</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067224</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663264</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817549</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162527</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175638</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159388</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626459992</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236476</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.87322336692</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043712</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292896</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651518</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078729</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659438</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521089</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>101.3076196007745</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420744</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422567</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473048</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862092</v>
       </c>
       <c r="N24" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071756</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558133</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742417</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937729</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275947</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189894</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121562</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869247</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796255</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355167</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588139</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392031</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106774</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920044</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417303</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515919</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670474</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.9903120353275</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099318</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467216</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348412</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135319</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067224</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663264</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817549</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162527</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175638</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159388</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626459992</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236476</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.87322336692</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043712</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292896</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651518</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078729</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659438</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521089</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>101.3076196007745</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420744</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>173.820032554348</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473048</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862092</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071756</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437217</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742417</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937729</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275947</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189894</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121562</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869247</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796255</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355167</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588139</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392031</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106774</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920044</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417303</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515919</v>
       </c>
       <c r="R28" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670474</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.9903120353275</v>
       </c>
       <c r="T28" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099318</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467216</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348412</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135319</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067224</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663264</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817549</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162527</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175638</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159388</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626459992</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236476</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.87322336692</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043712</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292896</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651518</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078729</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659438</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521089</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>101.3076196007745</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420744</v>
       </c>
       <c r="K30" t="n">
-        <v>173.8200325543357</v>
+        <v>173.8200325543482</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473048</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862092</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071756</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437217</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742417</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937729</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275947</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189894</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121562</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869247</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796255</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355167</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588139</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392031</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106774</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920044</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417303</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515919</v>
       </c>
       <c r="R31" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670474</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.9903120353275</v>
       </c>
       <c r="T31" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099318</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467216</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348412</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135319</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067224</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663264</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817549</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162527</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175638</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159388</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626459992</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236476</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.87322336692</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043712</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292896</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651518</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078729</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659438</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521089</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>101.3076196007745</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420744</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422567</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473048</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862092</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071756</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558133</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742417</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937729</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275947</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189894</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121562</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869247</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796255</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355167</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588139</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392031</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106774</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920044</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417303</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515919</v>
       </c>
       <c r="R34" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670474</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.9903120353275</v>
       </c>
       <c r="T34" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099318</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467216</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348412</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135319</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067224</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663264</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817549</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162527</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175638</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159388</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626459992</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236476</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.87322336692</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043712</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292896</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651518</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078729</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659438</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521089</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>101.3076196007745</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420744</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422567</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473048</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862092</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071756</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558133</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742417</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937729</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275947</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189894</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121562</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869247</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796255</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355167</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588139</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392031</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106774</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920044</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417303</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515919</v>
       </c>
       <c r="R37" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670474</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.9903120353275</v>
       </c>
       <c r="T37" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099318</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467216</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.43130987428316</v>
+        <v>20.43130987428373</v>
       </c>
       <c r="K2" t="n">
-        <v>81.87226576212782</v>
+        <v>81.87226576212868</v>
       </c>
       <c r="L2" t="n">
-        <v>544.6361471870198</v>
+        <v>556.5055067965468</v>
       </c>
       <c r="M2" t="n">
-        <v>635.9938917992698</v>
+        <v>635.993891799271</v>
       </c>
       <c r="N2" t="n">
-        <v>631.5051423789034</v>
+        <v>631.5051423789046</v>
       </c>
       <c r="O2" t="n">
-        <v>550.6683199540363</v>
+        <v>538.7989603445037</v>
       </c>
       <c r="P2" t="n">
-        <v>110.1290305176052</v>
+        <v>110.1290305176062</v>
       </c>
       <c r="Q2" t="n">
-        <v>34.04297548607346</v>
+        <v>34.04297548607414</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>67.25502282329688</v>
+        <v>331.720259835876</v>
       </c>
       <c r="L3" t="n">
-        <v>508.0634688859707</v>
+        <v>508.0634688859715</v>
       </c>
       <c r="M3" t="n">
-        <v>645.3903686673921</v>
+        <v>179.6853049173931</v>
       </c>
       <c r="N3" t="n">
-        <v>658.9760949310526</v>
+        <v>587.1768354009329</v>
       </c>
       <c r="O3" t="n">
-        <v>553.459837581489</v>
+        <v>553.4598375814898</v>
       </c>
       <c r="P3" t="n">
-        <v>153.9864114370432</v>
+        <v>427.0254977045804</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.14787863307501</v>
+        <v>22.14787863307546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>101.443883128777</v>
+        <v>101.4438831287773</v>
       </c>
       <c r="L4" t="n">
-        <v>185.9005521780397</v>
+        <v>185.9005521780402</v>
       </c>
       <c r="M4" t="n">
-        <v>206.5001308228108</v>
+        <v>206.5001308228113</v>
       </c>
       <c r="N4" t="n">
-        <v>207.0795307995565</v>
+        <v>207.0795307995569</v>
       </c>
       <c r="O4" t="n">
-        <v>175.0933872094272</v>
+        <v>175.0933872094276</v>
       </c>
       <c r="P4" t="n">
-        <v>126.06437619735</v>
+        <v>126.0643761973503</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.002580903812031</v>
+        <v>3.002580903812273</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>20.43130987428316</v>
+        <v>189.5279250463575</v>
       </c>
       <c r="K5" t="n">
-        <v>81.87226576212782</v>
+        <v>406.0176783332934</v>
       </c>
       <c r="L5" t="n">
-        <v>556.5055067965458</v>
+        <v>404.1408785172038</v>
       </c>
       <c r="M5" t="n">
-        <v>635.9938917992698</v>
+        <v>186.4803583064384</v>
       </c>
       <c r="N5" t="n">
-        <v>631.5051423789034</v>
+        <v>194.1582179669205</v>
       </c>
       <c r="O5" t="n">
-        <v>538.79896034451</v>
+        <v>550.6683199540374</v>
       </c>
       <c r="P5" t="n">
-        <v>110.1290305176052</v>
+        <v>431.9277386890888</v>
       </c>
       <c r="Q5" t="n">
-        <v>34.04297548607346</v>
+        <v>246.3579661459788</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.2518573138624</v>
+        <v>119.2518573138627</v>
       </c>
       <c r="K6" t="n">
-        <v>331.7202598358755</v>
+        <v>331.720259835876</v>
       </c>
       <c r="L6" t="n">
-        <v>508.0634688859707</v>
+        <v>508.0634688859715</v>
       </c>
       <c r="M6" t="n">
-        <v>238.5377682167912</v>
+        <v>238.5377682167868</v>
       </c>
       <c r="N6" t="n">
-        <v>198.995227051827</v>
+        <v>198.9952270518279</v>
       </c>
       <c r="O6" t="n">
-        <v>553.459837581489</v>
+        <v>553.4598375814898</v>
       </c>
       <c r="P6" t="n">
-        <v>427.0254977045797</v>
+        <v>427.0254977045804</v>
       </c>
       <c r="Q6" t="n">
-        <v>232.2251663689241</v>
+        <v>232.2251663689246</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>101.443883128777</v>
+        <v>101.4438831287773</v>
       </c>
       <c r="L7" t="n">
-        <v>185.9005521780397</v>
+        <v>185.9005521780402</v>
       </c>
       <c r="M7" t="n">
-        <v>206.5001308228108</v>
+        <v>206.5001308228113</v>
       </c>
       <c r="N7" t="n">
-        <v>207.0795307995565</v>
+        <v>207.0795307995569</v>
       </c>
       <c r="O7" t="n">
-        <v>175.0933872094272</v>
+        <v>175.0933872094276</v>
       </c>
       <c r="P7" t="n">
-        <v>126.06437619735</v>
+        <v>126.0643761973503</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002580903812031</v>
+        <v>3.002580903812273</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,13 +35175,13 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>532.8118772529223</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
         <v>633.6441091513602</v>
@@ -35190,7 +35190,7 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>211.6356214102748</v>
       </c>
       <c r="Q8" t="n">
         <v>35.33749497130819</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
@@ -35266,13 +35266,13 @@
         <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>404.5131328921288</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>199.7675046042672</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066788</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35667,7 +35667,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35737,13 +35737,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>35.97859357997665</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35980,7 +35980,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316375</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.70871103964</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036774</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462653</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902908</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193475</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243122</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683779</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924703</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902693</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774489</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754076</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678976</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674304</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641906</v>
       </c>
       <c r="N21" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238421</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113693</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295265</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096338</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191299</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010435</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899058</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060439</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066237</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998975</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.53969023631646</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396401</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367744</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462656</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902911</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193479</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243124</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683781</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924705</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902675</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774531</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754077</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678977</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674306</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641908</v>
       </c>
       <c r="N24" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238423</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113689</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295271</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096338</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.34201431913</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010436</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.626132989906</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060441</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066238</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998976</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.53969023631646</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396401</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367744</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462656</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107903193</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193479</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243124</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683781</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924705</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902391</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774531</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754077</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357998902</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674306</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641908</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238423</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992772</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295271</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096338</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.34201431913</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010436</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.626132989906</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060441</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066238</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998976</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.53969023631646</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396401</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367744</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462656</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902911</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193479</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243124</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683781</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924705</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902391</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774531</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754077</v>
       </c>
       <c r="K30" t="n">
-        <v>35.97859357997668</v>
+        <v>35.97859357998917</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674306</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641908</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238423</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992772</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295271</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096338</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.34201431913</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010436</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.626132989906</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060441</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066238</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998976</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.53969023631646</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396401</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367744</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462656</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902911</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193479</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243124</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683781</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924705</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902675</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774531</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754077</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678977</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674306</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641908</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238423</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113689</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295271</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096338</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.34201431913</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010436</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.626132989906</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060441</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066238</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998976</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.53969023631646</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396401</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367744</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462656</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902911</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193479</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243124</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683781</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924705</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902391</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774531</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754077</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678977</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674306</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641908</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238423</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113689</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295271</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096338</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.34201431913</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010436</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.626132989906</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060441</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066238</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998976</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
